--- a/results/correlation_matrix.xlsx
+++ b/results/correlation_matrix.xlsx
@@ -524,19 +524,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Clearing doubts with faculties in online mode</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Your level of satisfaction in Online Education</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.2837493868927445</v>
+        <v>0.5206582410264995</v>
       </c>
       <c r="E5" t="n">
-        <v>1.396928977333375e-20</v>
+        <v>7.717270695605718e-73</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Your interaction in online mode</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Performance in online</t>
+          <t>Your level of satisfaction in Online Education</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.2573393614974185</v>
+        <v>0.5176584615101305</v>
       </c>
       <c r="E6" t="n">
-        <v>4.356973207144546e-17</v>
+        <v>6.991527520013741e-72</v>
       </c>
     </row>
     <row r="7">
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Performance in online</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Interested in Gaming?</t>
+          <t>Your level of satisfaction in Online Education</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.2221722168901454</v>
+        <v>0.4722451626053564</v>
       </c>
       <c r="E7" t="n">
-        <v>5.104341621920486e-13</v>
+        <v>1.687159807887482e-58</v>
       </c>
     </row>
     <row r="8">
@@ -587,19 +587,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Have separate room for studying?</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2154547827476733</v>
+        <v>0.3911432407294627</v>
       </c>
       <c r="E8" t="n">
-        <v>2.582425110283069e-12</v>
+        <v>4.229718146829536e-39</v>
       </c>
     </row>
     <row r="9">
@@ -608,19 +608,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Internet facility in your locality</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Are you involved in any sports?</t>
+          <t>Home Location</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.2100296735824346</v>
+        <v>0.2837493868927445</v>
       </c>
       <c r="E9" t="n">
-        <v>9.203501266496453e-12</v>
+        <v>1.396928977333375e-20</v>
       </c>
     </row>
     <row r="10">
@@ -629,19 +629,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Performance in online</t>
+          <t>Home Location</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Your level of satisfaction in Online Education</t>
+          <t>Device type used to attend classes</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2097338698880317</v>
+        <v>0.2665996351730473</v>
       </c>
       <c r="E10" t="n">
-        <v>9.854172739646516e-12</v>
+        <v>2.870464736297272e-18</v>
       </c>
     </row>
     <row r="11">
@@ -655,14 +655,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Your interaction in online mode</t>
+          <t>Performance in online</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.2043911320402472</v>
+        <v>0.2573393614974185</v>
       </c>
       <c r="E11" t="n">
-        <v>3.325881342734966e-11</v>
+        <v>4.356973207144546e-17</v>
       </c>
     </row>
     <row r="12">
@@ -671,19 +671,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Your interaction in online mode</t>
+          <t>Internet facility in your locality</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Your level of satisfaction in Online Education</t>
+          <t>Device type used to attend classes</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.1920436689770229</v>
+        <v>0.2255313504362956</v>
       </c>
       <c r="E12" t="n">
-        <v>4.881048288687015e-10</v>
+        <v>2.224338963535534e-13</v>
       </c>
     </row>
     <row r="13">
@@ -692,19 +692,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Clearing doubts with faculties in online mode</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Your level of satisfaction in Online Education</t>
+          <t>Interested in Gaming?</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.1773400306003756</v>
+        <v>0.2221722168901454</v>
       </c>
       <c r="E13" t="n">
-        <v>9.55717559777794e-09</v>
+        <v>5.104341621920486e-13</v>
       </c>
     </row>
     <row r="14">
@@ -713,19 +713,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Study time (Hours)</t>
+          <t>Internet facility in your locality</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Clearing doubts with faculties in online mode</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.1751692316943343</v>
+        <v>0.2160141640796315</v>
       </c>
       <c r="E14" t="n">
-        <v>1.452772467013937e-08</v>
+        <v>2.260853451377868e-12</v>
       </c>
     </row>
     <row r="15">
@@ -734,19 +734,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Internet facility in your locality</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Your interaction in online mode</t>
+          <t>Have separate room for studying?</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.1719434036900047</v>
+        <v>0.2154547827476733</v>
       </c>
       <c r="E15" t="n">
-        <v>2.680935227969359e-08</v>
+        <v>2.582425110283069e-12</v>
       </c>
     </row>
     <row r="16">
@@ -755,19 +755,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Clearing doubts with faculties in online mode</t>
+          <t>Are you involved in any sports?</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.1589904560925383</v>
+        <v>0.2100296735824346</v>
       </c>
       <c r="E16" t="n">
-        <v>2.798691758387954e-07</v>
+        <v>9.203501266496453e-12</v>
       </c>
     </row>
     <row r="17">
@@ -776,19 +776,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Study time (Hours)</t>
+          <t>Device type used to attend classes</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Your interaction in online mode</t>
+          <t>Have separate room for studying?</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.1488589760777382</v>
+        <v>0.2066961223514844</v>
       </c>
       <c r="E17" t="n">
-        <v>1.544586538013574e-06</v>
+        <v>1.975802892032768e-11</v>
       </c>
     </row>
     <row r="18">
@@ -797,7 +797,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Device type used to attend classes</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -806,10 +806,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.1462422741256387</v>
+        <v>0.206085578849454</v>
       </c>
       <c r="E18" t="n">
-        <v>2.358679441748812e-06</v>
+        <v>2.26938411361182e-11</v>
       </c>
     </row>
     <row r="19">
@@ -818,19 +818,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Device type used to attend classes</t>
+          <t>Internet facility in your locality</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Interested in?</t>
+          <t>Your interaction in online mode</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.1453802260425566</v>
+        <v>0.2043911320402472</v>
       </c>
       <c r="E19" t="n">
-        <v>2.707363352506079e-06</v>
+        <v>3.325881342734966e-11</v>
       </c>
     </row>
     <row r="20">
@@ -839,19 +839,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sleep time (Hours)</t>
+          <t>Home Location</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.1445871635612967</v>
+        <v>0.1884140768089867</v>
       </c>
       <c r="E20" t="n">
-        <v>3.071354978211976e-06</v>
+        <v>1.040324670507607e-09</v>
       </c>
     </row>
     <row r="21">
@@ -865,14 +865,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Performance in online</t>
+          <t>Clearing doubts with faculties in online mode</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.1343435599212268</v>
+        <v>0.1751692316943343</v>
       </c>
       <c r="E21" t="n">
-        <v>1.475799635025652e-05</v>
+        <v>1.452772467013937e-08</v>
       </c>
     </row>
     <row r="22">
@@ -881,19 +881,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Number of Subjects</t>
+          <t>Your interaction in online mode</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.1288659009565912</v>
+        <v>0.1719434036900047</v>
       </c>
       <c r="E22" t="n">
-        <v>3.26558613064058e-05</v>
+        <v>2.680935227969359e-08</v>
       </c>
     </row>
     <row r="23">
@@ -902,19 +902,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Are you involved in any sports?</t>
+          <t>Device type used to attend classes</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Interested in Gaming?</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.1273247360651135</v>
+        <v>0.1603274525784498</v>
       </c>
       <c r="E23" t="n">
-        <v>4.060383047992682e-05</v>
+        <v>2.215510480496967e-07</v>
       </c>
     </row>
     <row r="24">
@@ -923,7 +923,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Device type used to attend classes</t>
+          <t>Internet facility in your locality</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -932,10 +932,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.1272335690089388</v>
+        <v>0.1589904560925383</v>
       </c>
       <c r="E24" t="n">
-        <v>4.112726990636383e-05</v>
+        <v>2.798691758387954e-07</v>
       </c>
     </row>
     <row r="25">
@@ -944,19 +944,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Study time (Hours)</t>
+          <t>Average marks scored before pandemic in traditional classroom</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Average marks scored before pandemic in traditional classroom</t>
+          <t>Interested in?</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.125796995807989</v>
+        <v>0.1566056932651454</v>
       </c>
       <c r="E25" t="n">
-        <v>5.026827872713129e-05</v>
+        <v>4.225554481400836e-07</v>
       </c>
     </row>
     <row r="26">
@@ -965,19 +965,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Study time (Hours)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Clearing doubts with faculties in online mode</t>
+          <t>Your interaction in online mode</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.1255589457173971</v>
+        <v>0.1488589760777382</v>
       </c>
       <c r="E26" t="n">
-        <v>5.195749046233346e-05</v>
+        <v>1.544586538013574e-06</v>
       </c>
     </row>
     <row r="27">
@@ -986,19 +986,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Device type used to attend classes</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Your level of satisfaction in Online Education</t>
+          <t>Interested in?</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.1166627509300987</v>
+        <v>0.1453802260425565</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0001713613494458623</v>
+        <v>2.707363352506079e-06</v>
       </c>
     </row>
     <row r="28">
@@ -1007,19 +1007,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Sleep time (Hours)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Average marks scored before pandemic in traditional classroom</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.1155025743706053</v>
+        <v>0.1445871635612967</v>
       </c>
       <c r="E28" t="n">
-        <v>0.000199023908619922</v>
+        <v>3.071354978211976e-06</v>
       </c>
     </row>
     <row r="29">
@@ -1028,19 +1028,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Performance in online</t>
+          <t>Interested in?</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.1149650318577521</v>
+        <v>0.1404062010496861</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0002132141387681755</v>
+        <v>5.906968537840489e-06</v>
       </c>
     </row>
     <row r="30">
@@ -1049,19 +1049,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Engaged in group studies?</t>
+          <t>Study time (Hours)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Clearing doubts with faculties in online mode</t>
+          <t>Performance in online</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.1143952876091298</v>
+        <v>0.1343435599212268</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0002292867928723619</v>
+        <v>1.475799635025652e-05</v>
       </c>
     </row>
     <row r="31">
@@ -1070,19 +1070,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Do elderly people monitor you?</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Clearing doubts with faculties in online mode</t>
+          <t>Your level of satisfaction in Online Education</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.1129451272561494</v>
+        <v>0.1329372597172392</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0002754665382792121</v>
+        <v>1.815013204405924e-05</v>
       </c>
     </row>
     <row r="32">
@@ -1091,19 +1091,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Home Location</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Average marks scored before pandemic in traditional classroom</t>
+          <t>Interested in?</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.112829162238989</v>
+        <v>0.130905484124054</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0002795125619126663</v>
+        <v>2.438443121724444e-05</v>
       </c>
     </row>
     <row r="33">
@@ -1112,19 +1112,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Engaged in group studies?</t>
+          <t>Are you involved in any sports?</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.1116634944575972</v>
+        <v>0.1302848599238424</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0003233891738093769</v>
+        <v>2.66630706253661e-05</v>
       </c>
     </row>
     <row r="34">
@@ -1133,19 +1133,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Engaged in group studies?</t>
+          <t>Number of Subjects</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Performance in online</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.1097560518234947</v>
+        <v>0.1288659009565912</v>
       </c>
       <c r="E34" t="n">
-        <v>0.000409313593805896</v>
+        <v>3.26558613064058e-05</v>
       </c>
     </row>
     <row r="35">
@@ -1154,19 +1154,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Family size</t>
+          <t>Are you involved in any sports?</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Do elderly people monitor you?</t>
+          <t>Interested in Gaming?</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.1093636761787631</v>
+        <v>0.1273247360651135</v>
       </c>
       <c r="E35" t="n">
-        <v>0.000429445581964949</v>
+        <v>4.060383047992682e-05</v>
       </c>
     </row>
     <row r="36">
@@ -1175,19 +1175,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Study time (Hours)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Are you involved in any sports?</t>
+          <t>Average marks scored before pandemic in traditional classroom</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.1081658078842216</v>
+        <v>0.125796995807989</v>
       </c>
       <c r="E36" t="n">
-        <v>0.000496762200755631</v>
+        <v>5.026827872713129e-05</v>
       </c>
     </row>
     <row r="37">
@@ -1196,19 +1196,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Engaged in group studies?</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Your interaction in online mode</t>
+          <t>Clearing doubts with faculties in online mode</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.107264958171947</v>
+        <v>0.1255589457173971</v>
       </c>
       <c r="E37" t="n">
-        <v>0.000553724808141522</v>
+        <v>5.195749046233346e-05</v>
       </c>
     </row>
     <row r="38">
@@ -1217,19 +1217,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Do elderly people monitor you?</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Your interaction in online mode</t>
+          <t>Interested in?</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.1070338031114373</v>
+        <v>0.1244366284287378</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0005692907064619216</v>
+        <v>6.06708548525127e-05</v>
       </c>
     </row>
     <row r="39">
@@ -1238,19 +1238,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Device type used to attend classes</t>
+          <t>Number of Subjects</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Your interaction in online mode</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.1035564076530617</v>
+        <v>0.1222272770082804</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0008583119382123363</v>
+        <v>8.201221796832311e-05</v>
       </c>
     </row>
     <row r="40">
@@ -1259,19 +1259,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Device type used to attend classes</t>
+          <t>Home Location</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sleep time (Hours)</t>
+          <t>Average marks scored before pandemic in traditional classroom</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.09740631538080416</v>
+        <v>0.1155025743706053</v>
       </c>
       <c r="E40" t="n">
-        <v>0.001722438724268642</v>
+        <v>0.000199023908619922</v>
       </c>
     </row>
     <row r="41">
@@ -1280,19 +1280,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Are you involved in any sports?</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Engaged in group studies?</t>
+          <t>Have separate room for studying?</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.09727737999025286</v>
+        <v>0.1153748351651267</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001747071326776626</v>
+        <v>0.0002023134197618268</v>
       </c>
     </row>
     <row r="42">
@@ -1301,19 +1301,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Have separate room for studying?</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Average marks scored before pandemic in traditional classroom</t>
+          <t>Performance in online</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.09572028458213416</v>
+        <v>0.1149650318577521</v>
       </c>
       <c r="E42" t="n">
-        <v>0.002071190186711889</v>
+        <v>0.0002132141387681755</v>
       </c>
     </row>
     <row r="43">
@@ -1322,19 +1322,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Clearing doubts with faculties in online mode</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Have separate room for studying?</t>
+          <t>Engaged in group studies?</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.09266514052223659</v>
+        <v>0.1143952876091298</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0028721756665562</v>
+        <v>0.0002292867928723619</v>
       </c>
     </row>
     <row r="44">
@@ -1343,19 +1343,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>Clearing doubts with faculties in online mode</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>Do elderly people monitor you?</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Performance in online</t>
-        </is>
-      </c>
       <c r="D44" t="n">
-        <v>0.09261573120288449</v>
+        <v>0.1129451272561494</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002887184270331244</v>
+        <v>0.0002754665382792121</v>
       </c>
     </row>
     <row r="45">
@@ -1364,19 +1364,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Do elderly people monitor you?</t>
+          <t>Internet facility in your locality</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Study time (Hours)</t>
+          <t>Average marks scored before pandemic in traditional classroom</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.08701776153386478</v>
+        <v>0.112829162238989</v>
       </c>
       <c r="E45" t="n">
-        <v>0.005130838933717104</v>
+        <v>0.0002795125619126663</v>
       </c>
     </row>
     <row r="46">
@@ -1385,19 +1385,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Internet facility in your locality</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Are you involved in any sports?</t>
+          <t>Your level of satisfaction in Online Education</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.08421276568722469</v>
+        <v>0.112348427354455</v>
       </c>
       <c r="E46" t="n">
-        <v>0.006765744223194119</v>
+        <v>0.0002968858427053219</v>
       </c>
     </row>
     <row r="47">
@@ -1406,19 +1406,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Study time (Hours)</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Have separate room for studying?</t>
+          <t>Engaged in group studies?</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.08321704544532263</v>
+        <v>0.1116634944575972</v>
       </c>
       <c r="E47" t="n">
-        <v>0.00745007179293514</v>
+        <v>0.0003233891738093769</v>
       </c>
     </row>
     <row r="48">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Do elderly people monitor you?</t>
+          <t>Performance in online</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1436,10 +1436,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.08297608860846048</v>
+        <v>0.1097560518234947</v>
       </c>
       <c r="E48" t="n">
-        <v>0.007624720486727739</v>
+        <v>0.000409313593805896</v>
       </c>
     </row>
     <row r="49">
@@ -1448,19 +1448,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Family size</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.08277184038519486</v>
+        <v>0.1093636761787631</v>
       </c>
       <c r="E49" t="n">
-        <v>0.007775622477341607</v>
+        <v>0.000429445581964949</v>
       </c>
     </row>
     <row r="50">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>Internet facility in your locality</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>Are you involved in any sports?</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Have separate room for studying?</t>
-        </is>
-      </c>
       <c r="D50" t="n">
-        <v>0.07888550870845631</v>
+        <v>0.1081658078842216</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01120342818849139</v>
+        <v>0.000496762200755631</v>
       </c>
     </row>
     <row r="51">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Have separate room for studying?</t>
+          <t>Your interaction in online mode</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1499,10 +1499,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.07844046972058261</v>
+        <v>0.107264958171947</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01167110082457225</v>
+        <v>0.000553724808141522</v>
       </c>
     </row>
     <row r="52">
@@ -1511,19 +1511,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Your interaction in online mode</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Family size</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.07810501942346933</v>
+        <v>0.1070338031114373</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01203495936085292</v>
+        <v>0.0005692907064619216</v>
       </c>
     </row>
     <row r="53">
@@ -1532,19 +1532,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Have separate room for studying?</t>
+          <t>Your interaction in online mode</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Performance in online</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.07566340407004002</v>
+        <v>0.1037413122847565</v>
       </c>
       <c r="E53" t="n">
-        <v>0.01499959151686353</v>
+        <v>0.0008400331512392968</v>
       </c>
     </row>
     <row r="54">
@@ -1553,19 +1553,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Are you involved in any sports?</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Interested in Gaming?</t>
+          <t>Engaged in group studies?</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.07556956345182345</v>
+        <v>0.09727737999025286</v>
       </c>
       <c r="E54" t="n">
-        <v>0.01512535841798282</v>
+        <v>0.001747071326776626</v>
       </c>
     </row>
     <row r="55">
@@ -1574,19 +1574,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Have separate room for studying?</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Average marks scored before pandemic in traditional classroom</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.07507499362597354</v>
+        <v>0.09572028458213416</v>
       </c>
       <c r="E55" t="n">
-        <v>0.01580363043500927</v>
+        <v>0.002071190186711889</v>
       </c>
     </row>
     <row r="56">
@@ -1595,19 +1595,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>Home Location</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>Have separate room for studying?</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Your interaction in online mode</t>
-        </is>
-      </c>
       <c r="D56" t="n">
-        <v>0.07367399314405884</v>
+        <v>0.09266514052223659</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01787208731534255</v>
+        <v>0.0028721756665562</v>
       </c>
     </row>
     <row r="57">
@@ -1616,19 +1616,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Performance in online</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.07296423257494264</v>
+        <v>0.09261573120288449</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01900764644793061</v>
+        <v>0.002887184270331244</v>
       </c>
     </row>
     <row r="58">
@@ -1637,19 +1637,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.07262450740777877</v>
+        <v>0.0907930565915708</v>
       </c>
       <c r="E58" t="n">
-        <v>0.01957312510907174</v>
+        <v>0.003493372816455777</v>
       </c>
     </row>
     <row r="59">
@@ -1658,19 +1658,19 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sleep time (Hours)</t>
+          <t>Study time (Hours)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Have separate room for studying?</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.0725159015548507</v>
+        <v>0.08701776153386478</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01975697053128579</v>
+        <v>0.005130838933717104</v>
       </c>
     </row>
     <row r="60">
@@ -1679,19 +1679,19 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>Home Location</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>Are you involved in any sports?</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Do elderly people monitor you?</t>
-        </is>
-      </c>
       <c r="D60" t="n">
-        <v>0.07195419012622351</v>
+        <v>0.08421276568722469</v>
       </c>
       <c r="E60" t="n">
-        <v>0.02073204839655176</v>
+        <v>0.006765744223194119</v>
       </c>
     </row>
     <row r="61">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Device type used to attend classes</t>
+          <t>Study time (Hours)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1709,10 +1709,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.07122935674040375</v>
+        <v>0.08335223889961749</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02205200917311274</v>
+        <v>0.007353658616104007</v>
       </c>
     </row>
     <row r="62">
@@ -1721,19 +1721,19 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Interested in Gaming?</t>
+          <t>Study time (Hours)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Engaged in group studies?</t>
+          <t>Have separate room for studying?</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.06708574757154653</v>
+        <v>0.08321704544532263</v>
       </c>
       <c r="E62" t="n">
-        <v>0.03108555514437519</v>
+        <v>0.00745007179293514</v>
       </c>
     </row>
     <row r="63">
@@ -1742,19 +1742,19 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Are you involved in any sports?</t>
+          <t>Engaged in group studies?</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.067004621246531</v>
+        <v>0.08297608860846048</v>
       </c>
       <c r="E63" t="n">
-        <v>0.03129018376776799</v>
+        <v>0.007624720486727739</v>
       </c>
     </row>
     <row r="64">
@@ -1763,19 +1763,19 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sleep time (Hours)</t>
+          <t>Internet facility in your locality</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Performance in online</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.06502047599634674</v>
+        <v>0.08277184038519486</v>
       </c>
       <c r="E64" t="n">
-        <v>0.03666634931663708</v>
+        <v>0.007775622477341607</v>
       </c>
     </row>
     <row r="65">
@@ -1784,19 +1784,19 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>Are you involved in any sports?</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>Have separate room for studying?</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Clearing doubts with faculties in online mode</t>
-        </is>
-      </c>
       <c r="D65" t="n">
-        <v>0.06467156526854685</v>
+        <v>0.07888550870845631</v>
       </c>
       <c r="E65" t="n">
-        <v>0.03768874585324428</v>
+        <v>0.01120342818849139</v>
       </c>
     </row>
     <row r="66">
@@ -1805,19 +1805,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Device type used to attend classes</t>
+          <t>Clearing doubts with faculties in online mode</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Interested in Gaming?</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.06301056512063063</v>
+        <v>0.07856739455913497</v>
       </c>
       <c r="E66" t="n">
-        <v>0.042894088800037</v>
+        <v>0.0115359892326478</v>
       </c>
     </row>
     <row r="67">
@@ -1826,19 +1826,19 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Family size</t>
+          <t>Have separate room for studying?</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Your level of satisfaction in Online Education</t>
+          <t>Engaged in group studies?</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.06219920457182903</v>
+        <v>0.07844046972058261</v>
       </c>
       <c r="E67" t="n">
-        <v>0.04564979304619966</v>
+        <v>0.01167110082457225</v>
       </c>
     </row>
     <row r="68">
@@ -1847,19 +1847,19 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Your interaction in online mode</t>
+          <t>Performance in online</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Interested in?</t>
+          <t>Have separate room for studying?</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.06177918235894224</v>
+        <v>0.07566340407004002</v>
       </c>
       <c r="E68" t="n">
-        <v>0.04713391937139069</v>
+        <v>0.01499959151686353</v>
       </c>
     </row>
     <row r="69">
@@ -1868,19 +1868,19 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Family size</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Study time (Hours)</t>
+          <t>Interested in Gaming?</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.06061406591446319</v>
+        <v>0.07556956345182345</v>
       </c>
       <c r="E69" t="n">
-        <v>0.05146433370942573</v>
+        <v>0.01512535841798282</v>
       </c>
     </row>
     <row r="70">
@@ -1889,19 +1889,19 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Device type used to attend classes</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Average marks scored before pandemic in traditional classroom</t>
+          <t>Are you involved in any sports?</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.05659292488593649</v>
+        <v>0.07491518627205135</v>
       </c>
       <c r="E70" t="n">
-        <v>0.06903821487455858</v>
+        <v>0.01602843493016404</v>
       </c>
     </row>
     <row r="71">
@@ -1910,19 +1910,19 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Your interaction in online mode</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Engaged in group studies?</t>
+          <t>Have separate room for studying?</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.05454014068198945</v>
+        <v>0.07367399314405884</v>
       </c>
       <c r="E71" t="n">
-        <v>0.07975329824861009</v>
+        <v>0.01787208731534255</v>
       </c>
     </row>
     <row r="72">
@@ -1931,19 +1931,19 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Family size</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Interested in?</t>
+          <t>Home Location</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.05449453507663943</v>
+        <v>0.07296423257494264</v>
       </c>
       <c r="E72" t="n">
-        <v>0.08000587020066109</v>
+        <v>0.01900764644793061</v>
       </c>
     </row>
     <row r="73">
@@ -1952,19 +1952,19 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Study time (Hours)</t>
+          <t>Internet facility in your locality</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.05429604968868167</v>
+        <v>0.07262450740777877</v>
       </c>
       <c r="E73" t="n">
-        <v>0.08111268711573272</v>
+        <v>0.01957312510907174</v>
       </c>
     </row>
     <row r="74">
@@ -1973,19 +1973,19 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Sleep time (Hours)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Have separate room for studying?</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.05410946412400688</v>
+        <v>0.0725159015548507</v>
       </c>
       <c r="E74" t="n">
-        <v>0.08216443321715228</v>
+        <v>0.01975697053128579</v>
       </c>
     </row>
     <row r="75">
@@ -1994,19 +1994,19 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Family size</t>
+          <t>Are you involved in any sports?</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.05351184502123346</v>
+        <v>0.07195419012622351</v>
       </c>
       <c r="E75" t="n">
-        <v>0.08560761791379524</v>
+        <v>0.02073204839655176</v>
       </c>
     </row>
     <row r="76">
@@ -2015,19 +2015,19 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Clearing doubts with faculties in online mode</t>
+          <t>Interested in Gaming?</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Interested in?</t>
+          <t>Engaged in group studies?</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.05240052080887553</v>
+        <v>0.06708574757154653</v>
       </c>
       <c r="E76" t="n">
-        <v>0.09231958591272349</v>
+        <v>0.03108555514437519</v>
       </c>
     </row>
     <row r="77">
@@ -2036,19 +2036,19 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Sleep time (Hours)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sleep time (Hours)</t>
+          <t>Performance in online</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.05183845468881282</v>
+        <v>0.06502047599634674</v>
       </c>
       <c r="E77" t="n">
-        <v>0.09587149926608031</v>
+        <v>0.03666634931663708</v>
       </c>
     </row>
     <row r="78">
@@ -2057,19 +2057,19 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sleep time (Hours)</t>
+          <t>Clearing doubts with faculties in online mode</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Interested in Gaming?</t>
+          <t>Have separate room for studying?</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.05178920441340901</v>
+        <v>0.06467156526854685</v>
       </c>
       <c r="E78" t="n">
-        <v>0.09618786593308777</v>
+        <v>0.03768874585324428</v>
       </c>
     </row>
     <row r="79">
@@ -2078,19 +2078,19 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Number of Subjects</t>
+          <t>Performance in online</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sleep time (Hours)</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.05153079642453451</v>
+        <v>0.06256558963759241</v>
       </c>
       <c r="E79" t="n">
-        <v>0.09786148366252367</v>
+        <v>0.04438748730696877</v>
       </c>
     </row>
     <row r="80">
@@ -2099,19 +2099,19 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Do elderly people monitor you?</t>
+          <t>Internet facility in your locality</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Have separate room for studying?</t>
+          <t>Interested in?</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.0481742038966079</v>
+        <v>0.06191901179258739</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1217769408549939</v>
+        <v>0.04663540229041321</v>
       </c>
     </row>
     <row r="81">
@@ -2120,19 +2120,19 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Your level of satisfaction in Online Education</t>
+          <t>Engaged in group studies?</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.04566691766679148</v>
+        <v>0.06084509874166477</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1424475055596979</v>
+        <v>0.05058016433343607</v>
       </c>
     </row>
     <row r="82">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Family size</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Your level of satisfaction in Online Education</t>
+          <t>Study time (Hours)</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.04364272088750419</v>
+        <v>0.06061406591446319</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1610166634682503</v>
+        <v>0.05146433370942573</v>
       </c>
     </row>
     <row r="83">
@@ -2162,19 +2162,19 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Sleep time (Hours)</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Clearing doubts with faculties in online mode</t>
+          <t>Average marks scored before pandemic in traditional classroom</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.04340193130085658</v>
+        <v>0.06055886273841986</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1633418320766361</v>
+        <v>0.05167749929396169</v>
       </c>
     </row>
     <row r="84">
@@ -2192,10 +2192,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.04060086149008454</v>
+        <v>0.05993904542971436</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1922737201330645</v>
+        <v>0.05412195636540448</v>
       </c>
     </row>
     <row r="85">
@@ -2204,19 +2204,19 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Device type used to attend classes</t>
+          <t>Are you involved in any sports?</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Performance in online</t>
+          <t>Interested in?</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.03979808025777387</v>
+        <v>0.05954810527186717</v>
       </c>
       <c r="E85" t="n">
-        <v>0.2012210082553849</v>
+        <v>0.05571275777537098</v>
       </c>
     </row>
     <row r="86">
@@ -2225,19 +2225,19 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Your interaction in online mode</t>
+          <t>Your level of satisfaction in Online Education</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.03948690769934263</v>
+        <v>0.058234178278739</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2047694781409635</v>
+        <v>0.06134691070808814</v>
       </c>
     </row>
     <row r="87">
@@ -2246,19 +2246,19 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Family size</t>
+          <t>Have separate room for studying?</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Are you involved in any sports?</t>
+          <t>Interested in?</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.03929292764526861</v>
+        <v>0.05791639751266908</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2070044060853284</v>
+        <v>0.06277811815064548</v>
       </c>
     </row>
     <row r="88">
@@ -2267,19 +2267,19 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Clearing doubts with faculties in online mode</t>
+          <t>Device type used to attend classes</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.03868673015029834</v>
+        <v>0.05585033029813743</v>
       </c>
       <c r="E88" t="n">
-        <v>0.2141025005380343</v>
+        <v>0.07276935151824349</v>
       </c>
     </row>
     <row r="89">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.03726700997440935</v>
+        <v>0.05454014068198945</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2314082806959319</v>
+        <v>0.07975329824861009</v>
       </c>
     </row>
     <row r="90">
@@ -2309,19 +2309,19 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Do elderly people monitor you?</t>
+          <t>Family size</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Interested in Gaming?</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.03716758502315906</v>
+        <v>0.05351184502123346</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2326563707631878</v>
+        <v>0.08560761791379524</v>
       </c>
     </row>
     <row r="91">
@@ -2330,19 +2330,19 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Internet facility in your locality</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Engaged in group studies?</t>
+          <t>Sleep time (Hours)</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.03700871967802638</v>
+        <v>0.05183845468881282</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2346605059225181</v>
+        <v>0.09587149926608031</v>
       </c>
     </row>
     <row r="92">
@@ -2351,19 +2351,19 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Sleep time (Hours)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Are you involved in any sports?</t>
+          <t>Interested in Gaming?</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.0369394342501288</v>
+        <v>0.05178920441340901</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2355383754702338</v>
+        <v>0.09618786593308777</v>
       </c>
     </row>
     <row r="93">
@@ -2372,19 +2372,19 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Device type used to attend classes</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Family size</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.03693026272104268</v>
+        <v>0.05175813975147222</v>
       </c>
       <c r="E93" t="n">
-        <v>0.2356547555147412</v>
+        <v>0.0963878431990637</v>
       </c>
     </row>
     <row r="94">
@@ -2398,14 +2398,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Family size</t>
+          <t>Sleep time (Hours)</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.03599730882228554</v>
+        <v>0.05153079642453451</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2477061973565413</v>
+        <v>0.09786148366252367</v>
       </c>
     </row>
     <row r="95">
@@ -2414,19 +2414,19 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Do elderly people monitor you?</t>
+          <t>Interested in?</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.03456381517714695</v>
+        <v>0.05056212860244372</v>
       </c>
       <c r="E95" t="n">
-        <v>0.2670513394084588</v>
+        <v>0.104342900296062</v>
       </c>
     </row>
     <row r="96">
@@ -2435,19 +2435,19 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Family size</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Engaged in group studies?</t>
+          <t>Have separate room for studying?</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.03452321614663399</v>
+        <v>0.0481742038966079</v>
       </c>
       <c r="E96" t="n">
-        <v>0.2676139324930301</v>
+        <v>0.1217769408549939</v>
       </c>
     </row>
     <row r="97">
@@ -2456,19 +2456,19 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Are you involved in any sports?</t>
+          <t>Sleep time (Hours)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Your interaction in online mode</t>
+          <t>Clearing doubts with faculties in online mode</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.03433531191917945</v>
+        <v>0.04340193130085658</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2702283702709859</v>
+        <v>0.1633418320766361</v>
       </c>
     </row>
     <row r="98">
@@ -2477,19 +2477,19 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Interested in Gaming?</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Interested in?</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.03392725216478708</v>
+        <v>0.04337348366659245</v>
       </c>
       <c r="E98" t="n">
-        <v>0.2759660498640135</v>
+        <v>0.1636181958251729</v>
       </c>
     </row>
     <row r="99">
@@ -2498,19 +2498,19 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Sleep time (Hours)</t>
+          <t>Device type used to attend classes</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Your interaction in online mode</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.03259790200628895</v>
+        <v>0.04162535691035844</v>
       </c>
       <c r="E99" t="n">
-        <v>0.2952303107907812</v>
+        <v>0.1812840794816364</v>
       </c>
     </row>
     <row r="100">
@@ -2519,19 +2519,19 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Interested in Gaming?</t>
+          <t>Family size</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Your level of satisfaction in Online Education</t>
+          <t>Are you involved in any sports?</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.03095178856287755</v>
+        <v>0.03929292764526861</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3203037035099943</v>
+        <v>0.2070044060853284</v>
       </c>
     </row>
     <row r="101">
@@ -2540,19 +2540,19 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Do elderly people monitor you?</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Interested in?</t>
+          <t>Your level of satisfaction in Online Education</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.02773875056349265</v>
+        <v>0.03878827218812013</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3731308102962591</v>
+        <v>0.2129014570120006</v>
       </c>
     </row>
     <row r="102">
@@ -2561,19 +2561,19 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Internet facility in your locality</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Sleep time (Hours)</t>
+          <t>Engaged in group studies?</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.02753457934553705</v>
+        <v>0.03726700997440935</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3766604437549677</v>
+        <v>0.2314082806959319</v>
       </c>
     </row>
     <row r="103">
@@ -2582,19 +2582,19 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Device type used to attend classes</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Interested in Gaming?</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.02695410378083164</v>
+        <v>0.03716758502315906</v>
       </c>
       <c r="E103" t="n">
-        <v>0.3868073194729126</v>
+        <v>0.2326563707631878</v>
       </c>
     </row>
     <row r="104">
@@ -2603,19 +2603,19 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Home Location</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Performance in online</t>
+          <t>Engaged in group studies?</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.02600819618712524</v>
+        <v>0.03700871967802638</v>
       </c>
       <c r="E104" t="n">
-        <v>0.403694705071009</v>
+        <v>0.2346605059225181</v>
       </c>
     </row>
     <row r="105">
@@ -2624,19 +2624,19 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Number of Subjects</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Have separate room for studying?</t>
+          <t>Family size</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.02486954071323643</v>
+        <v>0.03599730882228554</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4245974119351791</v>
+        <v>0.2477061973565413</v>
       </c>
     </row>
     <row r="106">
@@ -2645,19 +2645,19 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Number of Subjects</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Your level of satisfaction in Online Education</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.02455997707746547</v>
+        <v>0.03530678731885641</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4303875302362835</v>
+        <v>0.2568990454197475</v>
       </c>
     </row>
     <row r="107">
@@ -2666,19 +2666,19 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Number of Subjects</t>
+          <t>Performance in online</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Study time (Hours)</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.02428012221418723</v>
+        <v>0.03518170560559614</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4356611400639727</v>
+        <v>0.2585892229316492</v>
       </c>
     </row>
     <row r="108">
@@ -2687,19 +2687,19 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Internet facility in your locality</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Are you involved in any sports?</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.02367909550014568</v>
+        <v>0.03456381517714695</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4471118581586411</v>
+        <v>0.2670513394084588</v>
       </c>
     </row>
     <row r="109">
@@ -2708,19 +2708,19 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Family size</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Do elderly people monitor you?</t>
+          <t>Engaged in group studies?</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.02356041412301367</v>
+        <v>0.03452321614663399</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4493930072802111</v>
+        <v>0.2676139324930301</v>
       </c>
     </row>
     <row r="110">
@@ -2729,19 +2729,19 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Interested in Gaming?</t>
+          <t>Your interaction in online mode</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Your interaction in online mode</t>
+          <t>Are you involved in any sports?</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.02115958118788744</v>
+        <v>0.03433531191917945</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4969298606589758</v>
+        <v>0.2702283702709859</v>
       </c>
     </row>
     <row r="111">
@@ -2750,19 +2750,19 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Interested in?</t>
+          <t>Number of Subjects</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Your level of satisfaction in Online Education</t>
+          <t>Device type used to attend classes</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.02006064229363141</v>
+        <v>0.03419085027951822</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5195497649712926</v>
+        <v>0.2722502158286224</v>
       </c>
     </row>
     <row r="112">
@@ -2776,14 +2776,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Average marks scored before pandemic in traditional classroom</t>
+          <t>Your interaction in online mode</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.01997125045679456</v>
+        <v>0.03259790200628895</v>
       </c>
       <c r="E112" t="n">
-        <v>0.52141281078655</v>
+        <v>0.2952303107907812</v>
       </c>
     </row>
     <row r="113">
@@ -2792,19 +2792,19 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Interested in Gaming?</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Performance in online</t>
+          <t>Device type used to attend classes</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.01946198038151574</v>
+        <v>0.03209997703089698</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5320917849007444</v>
+        <v>0.3026721715559289</v>
       </c>
     </row>
     <row r="114">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Number of Subjects</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Interested in?</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.01943267988946526</v>
+        <v>0.03139509883674564</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5327095403606943</v>
+        <v>0.313418344441503</v>
       </c>
     </row>
     <row r="115">
@@ -2834,19 +2834,19 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Study time (Hours)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Interested in?</t>
+          <t>Device type used to attend classes</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.01848790983119104</v>
+        <v>0.02740172126040628</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5528207683788718</v>
+        <v>0.3789682515984908</v>
       </c>
     </row>
     <row r="116">
@@ -2855,19 +2855,19 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Have separate room for studying?</t>
+          <t>Engaged in group studies?</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.01848487790276898</v>
+        <v>0.02624184745683499</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5528859024974903</v>
+        <v>0.3994828323879517</v>
       </c>
     </row>
     <row r="117">
@@ -2876,19 +2876,19 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Engaged in group studies?</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Family size</t>
+          <t>Interested in?</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.01689342933052964</v>
+        <v>0.02526907602962809</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5875832743545482</v>
+        <v>0.4171920576873394</v>
       </c>
     </row>
     <row r="118">
@@ -2897,19 +2897,19 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Sleep time (Hours)</t>
+          <t>Family size</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Interested in?</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.01631294105074971</v>
+        <v>0.02517003863748018</v>
       </c>
       <c r="E118" t="n">
-        <v>0.600485022203367</v>
+        <v>0.4190205850728888</v>
       </c>
     </row>
     <row r="119">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2927,10 +2927,10 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.0144831215693572</v>
+        <v>0.02486954071323643</v>
       </c>
       <c r="E119" t="n">
-        <v>0.6419651731434189</v>
+        <v>0.4245974119351791</v>
       </c>
     </row>
     <row r="120">
@@ -2939,19 +2939,19 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Number of Subjects</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Study time (Hours)</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.01416319796060692</v>
+        <v>0.02428012221418723</v>
       </c>
       <c r="E120" t="n">
-        <v>0.6493385066338242</v>
+        <v>0.4356611400639727</v>
       </c>
     </row>
     <row r="121">
@@ -2960,19 +2960,19 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Study time (Hours)</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Engaged in group studies?</t>
+          <t>Are you involved in any sports?</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.0132857191437153</v>
+        <v>0.02367909550014568</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6697369495777177</v>
+        <v>0.4471118581586411</v>
       </c>
     </row>
     <row r="122">
@@ -2981,19 +2981,19 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Interested in?</t>
+          <t>Home Location</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Performance in online</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.01314763597312322</v>
+        <v>0.02356041412301367</v>
       </c>
       <c r="E122" t="n">
-        <v>0.6729696817194829</v>
+        <v>0.4493930072802111</v>
       </c>
     </row>
     <row r="123">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Number of Subjects</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3011,10 +3011,10 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.01278567055160958</v>
+        <v>0.02231707431282278</v>
       </c>
       <c r="E123" t="n">
-        <v>0.6814723914120693</v>
+        <v>0.4736835032144196</v>
       </c>
     </row>
     <row r="124">
@@ -3023,19 +3023,19 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Number of Subjects</t>
+          <t>Your interaction in online mode</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Performance in online</t>
+          <t>Interested in Gaming?</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.01273967415057592</v>
+        <v>0.02115958118788744</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6825557918342298</v>
+        <v>0.4969298606589758</v>
       </c>
     </row>
     <row r="125">
@@ -3044,19 +3044,19 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Device type used to attend classes</t>
+          <t>Have separate room for studying?</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Your level of satisfaction in Online Education</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.01264288490548003</v>
+        <v>0.02028112353723121</v>
       </c>
       <c r="E125" t="n">
-        <v>0.6848377004818065</v>
+        <v>0.5149693474700239</v>
       </c>
     </row>
     <row r="126">
@@ -3065,19 +3065,19 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
+          <t>Sleep time (Hours)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
           <t>Average marks scored before pandemic in traditional classroom</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Performance in online</t>
-        </is>
-      </c>
       <c r="D126" t="n">
-        <v>0.01240607990866891</v>
+        <v>0.01997125045679456</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6904327150496983</v>
+        <v>0.52141281078655</v>
       </c>
     </row>
     <row r="127">
@@ -3086,19 +3086,19 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Study time (Hours)</t>
+          <t>Performance in online</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Your level of satisfaction in Online Education</t>
+          <t>Interested in Gaming?</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.01166926801551964</v>
+        <v>0.01946198038151574</v>
       </c>
       <c r="E127" t="n">
-        <v>0.7079485724640182</v>
+        <v>0.5320917849007444</v>
       </c>
     </row>
     <row r="128">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Number of Subjects</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3116,10 +3116,10 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.01107314234565436</v>
+        <v>0.01848487790276898</v>
       </c>
       <c r="E128" t="n">
-        <v>0.7222342868758378</v>
+        <v>0.5528859024974903</v>
       </c>
     </row>
     <row r="129">
@@ -3128,19 +3128,19 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Do elderly people monitor you?</t>
+          <t>Sleep time (Hours)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Average marks scored before pandemic in traditional classroom</t>
+          <t>Your level of satisfaction in Online Education</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.01066357219341035</v>
+        <v>0.01751466938206195</v>
       </c>
       <c r="E129" t="n">
-        <v>0.7321060459897878</v>
+        <v>0.5739194022882798</v>
       </c>
     </row>
     <row r="130">
@@ -3149,19 +3149,19 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Are you involved in any sports?</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Performance in online</t>
+          <t>Family size</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.009961474123981524</v>
+        <v>0.01689342933052964</v>
       </c>
       <c r="E130" t="n">
-        <v>0.7491311399159368</v>
+        <v>0.5875832743545482</v>
       </c>
     </row>
     <row r="131">
@@ -3170,19 +3170,19 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Are you involved in any sports?</t>
+          <t>Study time (Hours)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Your level of satisfaction in Online Education</t>
+          <t>Interested in?</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.009426352692763023</v>
+        <v>0.01597358656841968</v>
       </c>
       <c r="E131" t="n">
-        <v>0.7621902356944352</v>
+        <v>0.6080861453056757</v>
       </c>
     </row>
     <row r="132">
@@ -3191,19 +3191,19 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Family size</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Sleep time (Hours)</t>
+          <t>Your level of satisfaction in Online Education</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.007593053681370936</v>
+        <v>0.0146014444694126</v>
       </c>
       <c r="E132" t="n">
-        <v>0.8074235207149822</v>
+        <v>0.639247018933751</v>
       </c>
     </row>
     <row r="133">
@@ -3212,19 +3212,19 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Sleep time (Hours)</t>
+          <t>Study time (Hours)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Your level of satisfaction in Online Education</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.006914838013162452</v>
+        <v>0.0132902235893125</v>
       </c>
       <c r="E133" t="n">
-        <v>0.82433049538835</v>
+        <v>0.6696315962375486</v>
       </c>
     </row>
     <row r="134">
@@ -3233,19 +3233,19 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Are you involved in any sports?</t>
+          <t>Study time (Hours)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Engaged in group studies?</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.00686236917003244</v>
+        <v>0.0132857191437153</v>
       </c>
       <c r="E134" t="n">
-        <v>0.8256419769600251</v>
+        <v>0.6697369495777177</v>
       </c>
     </row>
     <row r="135">
@@ -3254,19 +3254,19 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Have separate room for studying?</t>
+          <t>Number of Subjects</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Your level of satisfaction in Online Education</t>
+          <t>Interested in Gaming?</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.006374036222338083</v>
+        <v>0.01278567055160958</v>
       </c>
       <c r="E135" t="n">
-        <v>0.8378709123867611</v>
+        <v>0.6814723914120693</v>
       </c>
     </row>
     <row r="136">
@@ -3275,19 +3275,19 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Number of Subjects</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Do elderly people monitor you?</t>
+          <t>Performance in online</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.005695566442381122</v>
+        <v>0.01273967415057592</v>
       </c>
       <c r="E136" t="n">
-        <v>0.8549257899995005</v>
+        <v>0.6825557918342298</v>
       </c>
     </row>
     <row r="137">
@@ -3296,19 +3296,19 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Performance in online</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Your level of satisfaction in Online Education</t>
+          <t>Average marks scored before pandemic in traditional classroom</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.005637884926418178</v>
+        <v>0.01240607990866891</v>
       </c>
       <c r="E137" t="n">
-        <v>0.8563789899514493</v>
+        <v>0.6904327150496983</v>
       </c>
     </row>
     <row r="138">
@@ -3317,19 +3317,19 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Your interaction in online mode</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.005455033295528726</v>
+        <v>0.01167172552952028</v>
       </c>
       <c r="E138" t="n">
-        <v>0.8609888564092046</v>
+        <v>0.7078898877814178</v>
       </c>
     </row>
     <row r="139">
@@ -3338,19 +3338,19 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Device type used to attend classes</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Study time (Hours)</t>
+          <t>Engaged in group studies?</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.005344039822334213</v>
+        <v>0.01131019536552393</v>
       </c>
       <c r="E139" t="n">
-        <v>0.8637894280419717</v>
+        <v>0.7165415682777352</v>
       </c>
     </row>
     <row r="140">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Number of Subjects</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3368,10 +3368,10 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.004991667622808584</v>
+        <v>0.01107314234565436</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8726915989102205</v>
+        <v>0.7222342868758378</v>
       </c>
     </row>
     <row r="141">
@@ -3380,19 +3380,19 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Number of Subjects</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Average marks scored before pandemic in traditional classroom</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.004833436710890411</v>
+        <v>0.01066357219341035</v>
       </c>
       <c r="E141" t="n">
-        <v>0.8766943858333609</v>
+        <v>0.7321060459897878</v>
       </c>
     </row>
     <row r="142">
@@ -3401,19 +3401,19 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Do elderly people monitor you?</t>
+          <t>Performance in online</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Your level of satisfaction in Online Education</t>
+          <t>Are you involved in any sports?</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.004678144523831178</v>
+        <v>0.009961474123981524</v>
       </c>
       <c r="E142" t="n">
-        <v>0.8806258962399827</v>
+        <v>0.7491311399159368</v>
       </c>
     </row>
     <row r="143">
@@ -3422,19 +3422,19 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Are you involved in any sports?</t>
+          <t>Sleep time (Hours)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Sleep time (Hours)</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.003572625830662902</v>
+        <v>0.007593053681370936</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9086934798902355</v>
+        <v>0.8074235207149822</v>
       </c>
     </row>
     <row r="144">
@@ -3443,19 +3443,19 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Are you involved in any sports?</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0.003010935889430342</v>
+        <v>0.00686236917003244</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9229999899471669</v>
+        <v>0.8256419769600251</v>
       </c>
     </row>
     <row r="145">
@@ -3464,19 +3464,19 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Family size</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Performance in online</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.001548503498602768</v>
+        <v>0.005455033295528726</v>
       </c>
       <c r="E145" t="n">
-        <v>0.9603541522518177</v>
+        <v>0.8609888564092046</v>
       </c>
     </row>
     <row r="146">
@@ -3485,19 +3485,19 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Are you involved in any sports?</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Average marks scored before pandemic in traditional classroom</t>
+          <t>Study time (Hours)</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.001370509135264208</v>
+        <v>0.005344039822334213</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9649081600833206</v>
+        <v>0.8637894280419717</v>
       </c>
     </row>
     <row r="147">
@@ -3506,19 +3506,19 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Performance in online</t>
+          <t>Have separate room for studying?</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-0.001372205885292013</v>
+        <v>0.004991667622808584</v>
       </c>
       <c r="E147" t="n">
-        <v>0.9648647428910178</v>
+        <v>0.8726915989102205</v>
       </c>
     </row>
     <row r="148">
@@ -3532,14 +3532,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Do elderly people monitor you?</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-0.001375939568076047</v>
+        <v>0.004833436710890411</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9647692041263427</v>
+        <v>0.8766943858333609</v>
       </c>
     </row>
     <row r="149">
@@ -3548,19 +3548,19 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Family size</t>
+          <t>Interested in Gaming?</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Interested in Gaming?</t>
+          <t>Your level of satisfaction in Online Education</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-0.002328064413625033</v>
+        <v>0.004445692242159332</v>
       </c>
       <c r="E149" t="n">
-        <v>0.9404261667117191</v>
+        <v>0.8865163227167944</v>
       </c>
     </row>
     <row r="150">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Number of Subjects</t>
+          <t>Sleep time (Hours)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3578,10 +3578,10 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-0.004236815216934087</v>
+        <v>0.003572625830662902</v>
       </c>
       <c r="E150" t="n">
-        <v>0.8918146987688039</v>
+        <v>0.9086934798902355</v>
       </c>
     </row>
     <row r="151">
@@ -3590,19 +3590,19 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Your level of satisfaction in Online Education</t>
+          <t>Home Location</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>-0.004568911291583606</v>
+        <v>0.003010935889430342</v>
       </c>
       <c r="E151" t="n">
-        <v>0.8833931056502845</v>
+        <v>0.9229999899471669</v>
       </c>
     </row>
     <row r="152">
@@ -3611,19 +3611,19 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Family size</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Interested in?</t>
+          <t>Performance in online</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-0.004773839577433311</v>
+        <v>0.001548503498602768</v>
       </c>
       <c r="E152" t="n">
-        <v>0.8782028443235532</v>
+        <v>0.9603541522518177</v>
       </c>
     </row>
     <row r="153">
@@ -3632,19 +3632,19 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Are you involved in any sports?</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Engaged in group studies?</t>
+          <t>Average marks scored before pandemic in traditional classroom</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>-0.005057940514461762</v>
+        <v>0.001370509135264208</v>
       </c>
       <c r="E153" t="n">
-        <v>0.8710160458666329</v>
+        <v>0.9649081600833206</v>
       </c>
     </row>
     <row r="154">
@@ -3653,19 +3653,19 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Number of Subjects</t>
+          <t>Clearing doubts with faculties in online mode</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Your interaction in online mode</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-0.005143855697040801</v>
+        <v>-0.0004934932622092259</v>
       </c>
       <c r="E154" t="n">
-        <v>0.8688447452573408</v>
+        <v>0.9873605791676737</v>
       </c>
     </row>
     <row r="155">
@@ -3679,14 +3679,14 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Average marks scored before pandemic in traditional classroom</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>-0.00521923856588858</v>
+        <v>-0.001375939568076047</v>
       </c>
       <c r="E155" t="n">
-        <v>0.8669404362194176</v>
+        <v>0.9647692041263427</v>
       </c>
     </row>
     <row r="156">
@@ -3695,19 +3695,19 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Family size</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Interested in Gaming?</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>-0.005557697654756638</v>
+        <v>-0.002328064413625033</v>
       </c>
       <c r="E156" t="n">
-        <v>0.8583999959524606</v>
+        <v>0.9404261667117191</v>
       </c>
     </row>
     <row r="157">
@@ -3716,19 +3716,19 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Number of Subjects</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Interested in Gaming?</t>
+          <t>Are you involved in any sports?</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-0.007438212464965973</v>
+        <v>-0.004236815216934087</v>
       </c>
       <c r="E157" t="n">
-        <v>0.8112758967920112</v>
+        <v>0.8918146987688039</v>
       </c>
     </row>
     <row r="158">
@@ -3737,19 +3737,19 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Number of Subjects</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Performance in online</t>
+          <t>Your interaction in online mode</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-0.008082820515895563</v>
+        <v>-0.005143855697040801</v>
       </c>
       <c r="E158" t="n">
-        <v>0.7952694452949352</v>
+        <v>0.8688447452573408</v>
       </c>
     </row>
     <row r="159">
@@ -3758,19 +3758,19 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Number of Subjects</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Average marks scored before pandemic in traditional classroom</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>-0.008569152915161637</v>
+        <v>-0.00521923856588858</v>
       </c>
       <c r="E159" t="n">
-        <v>0.7832494851451921</v>
+        <v>0.8669404362194176</v>
       </c>
     </row>
     <row r="160">
@@ -3779,19 +3779,19 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Number of Subjects</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Clearing doubts with faculties in online mode</t>
+          <t>Interested in Gaming?</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>-0.008594725028426245</v>
+        <v>-0.007438212464965973</v>
       </c>
       <c r="E160" t="n">
-        <v>0.7826188568233742</v>
+        <v>0.8112758967920112</v>
       </c>
     </row>
     <row r="161">
@@ -3800,19 +3800,19 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Interested in Gaming?</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Have separate room for studying?</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>-0.01027826862032601</v>
+        <v>-0.007722138908280695</v>
       </c>
       <c r="E161" t="n">
-        <v>0.7414335368038406</v>
+        <v>0.8042154979751202</v>
       </c>
     </row>
     <row r="162">
@@ -3821,19 +3821,19 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Performance in online</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Average marks scored before pandemic in traditional classroom</t>
+          <t>Home Location</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>-0.01034140971231664</v>
+        <v>-0.008082820515895563</v>
       </c>
       <c r="E162" t="n">
-        <v>0.7399023636496762</v>
+        <v>0.7952694452949352</v>
       </c>
     </row>
     <row r="163">
@@ -3842,19 +3842,19 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Device type used to attend classes</t>
+          <t>Number of Subjects</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Engaged in group studies?</t>
+          <t>Clearing doubts with faculties in online mode</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>-0.01131019536552393</v>
+        <v>-0.008594725028426245</v>
       </c>
       <c r="E163" t="n">
-        <v>0.7165415682777352</v>
+        <v>0.7826188568233742</v>
       </c>
     </row>
     <row r="164">
@@ -3863,19 +3863,19 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Interested in Gaming?</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Number of Subjects</t>
+          <t>Have separate room for studying?</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>-0.01150531816770768</v>
+        <v>-0.01027826862032601</v>
       </c>
       <c r="E164" t="n">
-        <v>0.711867541203445</v>
+        <v>0.7414335368038406</v>
       </c>
     </row>
     <row r="165">
@@ -3884,19 +3884,19 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Study time (Hours)</t>
+          <t>Average marks scored before pandemic in traditional classroom</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>-0.01155402175937419</v>
+        <v>-0.01034140971231664</v>
       </c>
       <c r="E165" t="n">
-        <v>0.7107025575051924</v>
+        <v>0.7399023636496762</v>
       </c>
     </row>
     <row r="166">
@@ -3905,19 +3905,19 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Sleep time (Hours)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Sleep time (Hours)</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>-0.01494020004464727</v>
+        <v>-0.01058600879432525</v>
       </c>
       <c r="E166" t="n">
-        <v>0.6314918178342471</v>
+        <v>0.7339805898204262</v>
       </c>
     </row>
     <row r="167">
@@ -3926,19 +3926,19 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Device type used to attend classes</t>
+          <t>Number of Subjects</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>-0.01507544590711834</v>
+        <v>-0.01150531816770768</v>
       </c>
       <c r="E167" t="n">
-        <v>0.6284068213477502</v>
+        <v>0.711867541203445</v>
       </c>
     </row>
     <row r="168">
@@ -3947,19 +3947,19 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Family size</t>
+          <t>Internet facility in your locality</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Sleep time (Hours)</t>
+          <t>Study time (Hours)</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>-0.01578704663934068</v>
+        <v>-0.01155402175937419</v>
       </c>
       <c r="E168" t="n">
-        <v>0.6122825665165249</v>
+        <v>0.7107025575051924</v>
       </c>
     </row>
     <row r="169">
@@ -3968,19 +3968,19 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Study time (Hours)</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Interested in?</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>-0.01597358656841968</v>
+        <v>-0.01219439113802085</v>
       </c>
       <c r="E169" t="n">
-        <v>0.6080861453056757</v>
+        <v>0.6954486561570491</v>
       </c>
     </row>
     <row r="170">
@@ -3989,19 +3989,19 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Interested in Gaming?</t>
+          <t>Performance in online</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Clearing doubts with faculties in online mode</t>
+          <t>Interested in?</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>-0.01630002905218003</v>
+        <v>-0.01314763597312322</v>
       </c>
       <c r="E170" t="n">
-        <v>0.6007734488834093</v>
+        <v>0.6729696817194829</v>
       </c>
     </row>
     <row r="171">
@@ -4010,19 +4010,19 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Family size</t>
+          <t>Are you involved in any sports?</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>-0.01882399948723686</v>
+        <v>-0.01349184720686557</v>
       </c>
       <c r="E171" t="n">
-        <v>0.5456240306210526</v>
+        <v>0.6649225468455466</v>
       </c>
     </row>
     <row r="172">
@@ -4031,19 +4031,19 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Your level of satisfaction in Online Education</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-0.01904893343685123</v>
+        <v>-0.01431702372845034</v>
       </c>
       <c r="E172" t="n">
-        <v>0.5408335485895764</v>
+        <v>0.6457889183181517</v>
       </c>
     </row>
     <row r="173">
@@ -4052,19 +4052,19 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Number of Subjects</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Your level of satisfaction in Online Education</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-0.01912626694996892</v>
+        <v>-0.01565590844749431</v>
       </c>
       <c r="E173" t="n">
-        <v>0.5391914170795207</v>
+        <v>0.6152402968864726</v>
       </c>
     </row>
     <row r="174">
@@ -4078,14 +4078,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Clearing doubts with faculties in online mode</t>
+          <t>Sleep time (Hours)</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>-0.01946055781156803</v>
+        <v>-0.01578704663934068</v>
       </c>
       <c r="E174" t="n">
-        <v>0.5321217692127477</v>
+        <v>0.6122825665165249</v>
       </c>
     </row>
     <row r="175">
@@ -4094,19 +4094,19 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Family size</t>
+          <t>Clearing doubts with faculties in online mode</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Interested in Gaming?</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>-0.02099559582221415</v>
+        <v>-0.01630002905218003</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5002716443194288</v>
+        <v>0.6007734488834093</v>
       </c>
     </row>
     <row r="176">
@@ -4115,19 +4115,19 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Sleep time (Hours)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Study time (Hours)</t>
+          <t>Interested in?</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>-0.02144721444624191</v>
+        <v>-0.01631294105074971</v>
       </c>
       <c r="E176" t="n">
-        <v>0.4910971227778885</v>
+        <v>0.600485022203367</v>
       </c>
     </row>
     <row r="177">
@@ -4136,19 +4136,19 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Number of Subjects</t>
+          <t>Interested in?</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>-0.02299157094630672</v>
+        <v>-0.01714200267674611</v>
       </c>
       <c r="E177" t="n">
-        <v>0.4604176676754556</v>
+        <v>0.5820980001925868</v>
       </c>
     </row>
     <row r="178">
@@ -4162,14 +4162,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Your level of satisfaction in Online Education</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-0.02353153875458697</v>
+        <v>-0.01715782079517418</v>
       </c>
       <c r="E178" t="n">
-        <v>0.4499490097443782</v>
+        <v>0.5817497512100039</v>
       </c>
     </row>
     <row r="179">
@@ -4178,19 +4178,19 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Family size</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Your interaction in online mode</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-0.02426800694704743</v>
+        <v>-0.01715968108384982</v>
       </c>
       <c r="E179" t="n">
-        <v>0.4358902785387626</v>
+        <v>0.5817088018048432</v>
       </c>
     </row>
     <row r="180">
@@ -4199,19 +4199,19 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Are you involved in any sports?</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Clearing doubts with faculties in online mode</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-0.02498563799057739</v>
+        <v>-0.01770527243148025</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4224376898442452</v>
+        <v>0.5697575170121573</v>
       </c>
     </row>
     <row r="181">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Engaged in group studies?</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4229,10 +4229,10 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-0.02526907602962809</v>
+        <v>-0.01848790983119104</v>
       </c>
       <c r="E181" t="n">
-        <v>0.4171920576873394</v>
+        <v>0.5528207683788718</v>
       </c>
     </row>
     <row r="182">
@@ -4241,19 +4241,19 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Number of Subjects</t>
+          <t>Family size</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-0.02541763326772187</v>
+        <v>-0.01882399948723686</v>
       </c>
       <c r="E182" t="n">
-        <v>0.414458070619403</v>
+        <v>0.5456240306210526</v>
       </c>
     </row>
     <row r="183">
@@ -4262,19 +4262,19 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Number of Subjects</t>
+          <t>Family size</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Clearing doubts with faculties in online mode</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-0.025914875628465</v>
+        <v>-0.01946055781156803</v>
       </c>
       <c r="E183" t="n">
-        <v>0.4053843236960614</v>
+        <v>0.5321217692127477</v>
       </c>
     </row>
     <row r="184">
@@ -4283,19 +4283,19 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Device type used to attend classes</t>
+          <t>Family size</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Study time (Hours)</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>-0.0274017212604063</v>
+        <v>-0.02028155231200104</v>
       </c>
       <c r="E184" t="n">
-        <v>0.3789682515984908</v>
+        <v>0.5149604602819556</v>
       </c>
     </row>
     <row r="185">
@@ -4304,19 +4304,19 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Family size</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Do elderly people monitor you?</t>
+          <t>Internet facility in your locality</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-0.02740685620471818</v>
+        <v>-0.02099559582221415</v>
       </c>
       <c r="E185" t="n">
-        <v>0.37887889408792</v>
+        <v>0.5002716443194288</v>
       </c>
     </row>
     <row r="186">
@@ -4325,19 +4325,19 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Number of Subjects</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Interested in Gaming?</t>
+          <t>Home Location</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-0.02819641076075477</v>
+        <v>-0.02299157094630672</v>
       </c>
       <c r="E186" t="n">
-        <v>0.3652935728908789</v>
+        <v>0.4604176676754556</v>
       </c>
     </row>
     <row r="187">
@@ -4346,19 +4346,19 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Number of Subjects</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-0.02974234896648075</v>
+        <v>-0.0241523120139111</v>
       </c>
       <c r="E187" t="n">
-        <v>0.3395865874635611</v>
+        <v>0.4380819325253423</v>
       </c>
     </row>
     <row r="188">
@@ -4367,19 +4367,19 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Family size</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Family size</t>
+          <t>Your interaction in online mode</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-0.03007633297351808</v>
+        <v>-0.02426800694704743</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3341888262444695</v>
+        <v>0.4358902785387626</v>
       </c>
     </row>
     <row r="189">
@@ -4388,19 +4388,19 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Clearing doubts with faculties in online mode</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Interested in?</t>
+          <t>Are you involved in any sports?</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-0.03071506638722701</v>
+        <v>-0.02498563799057739</v>
       </c>
       <c r="E189" t="n">
-        <v>0.3240205378983237</v>
+        <v>0.4224376898442452</v>
       </c>
     </row>
     <row r="190">
@@ -4414,14 +4414,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Interested in?</t>
+          <t>Internet facility in your locality</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>-0.03139509883674564</v>
+        <v>-0.025914875628465</v>
       </c>
       <c r="E190" t="n">
-        <v>0.313418344441503</v>
+        <v>0.4053843236960614</v>
       </c>
     </row>
     <row r="191">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4439,10 +4439,10 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>-0.032099977030897</v>
+        <v>-0.02695410378083163</v>
       </c>
       <c r="E191" t="n">
-        <v>0.3026721715559289</v>
+        <v>0.3868073194729126</v>
       </c>
     </row>
     <row r="192">
@@ -4451,19 +4451,19 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Number of Subjects</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Device type used to attend classes</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-0.03419085027951822</v>
+        <v>-0.02740685620471818</v>
       </c>
       <c r="E192" t="n">
-        <v>0.2722502158286224</v>
+        <v>0.37887889408792</v>
       </c>
     </row>
     <row r="193">
@@ -4472,19 +4472,19 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Do elderly people monitor you?</t>
+          <t>Interested in?</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-0.03728079819674694</v>
+        <v>-0.02773875056349265</v>
       </c>
       <c r="E193" t="n">
-        <v>0.2312355715901191</v>
+        <v>0.3731308102962591</v>
       </c>
     </row>
     <row r="194">
@@ -4493,19 +4493,19 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Study time (Hours)</t>
+          <t>Family size</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Interested in Gaming?</t>
+          <t>Device type used to attend classes</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>-0.03748037740384068</v>
+        <v>-0.03693026272104268</v>
       </c>
       <c r="E194" t="n">
-        <v>0.2287459090485744</v>
+        <v>0.2356547555147412</v>
       </c>
     </row>
     <row r="195">
@@ -4514,19 +4514,19 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Study time (Hours)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Do elderly people monitor you?</t>
+          <t>Interested in Gaming?</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>-0.04139439301698847</v>
+        <v>-0.03748037740384068</v>
       </c>
       <c r="E195" t="n">
-        <v>0.1837200183967191</v>
+        <v>0.2287459090485744</v>
       </c>
     </row>
     <row r="196">
@@ -4535,19 +4535,19 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Study time (Hours)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>-0.04153710360123115</v>
+        <v>-0.03753029223561847</v>
       </c>
       <c r="E196" t="n">
-        <v>0.1822120315704005</v>
+        <v>0.2281262337328991</v>
       </c>
     </row>
     <row r="197">
@@ -4556,19 +4556,19 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
+          <t>Performance in online</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
           <t>Device type used to attend classes</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Do elderly people monitor you?</t>
-        </is>
-      </c>
       <c r="D197" t="n">
-        <v>-0.04162535691035835</v>
+        <v>-0.03979808025777387</v>
       </c>
       <c r="E197" t="n">
-        <v>0.1812840794816364</v>
+        <v>0.2012210082553849</v>
       </c>
     </row>
     <row r="198">
@@ -4577,19 +4577,19 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Interested in Gaming?</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Interested in?</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>-0.04337348366659245</v>
+        <v>-0.04139439301698847</v>
       </c>
       <c r="E198" t="n">
-        <v>0.1636181958251729</v>
+        <v>0.1837200183967191</v>
       </c>
     </row>
     <row r="199">
@@ -4598,19 +4598,19 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Do elderly people monitor you?</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>-0.04397590313183433</v>
+        <v>-0.04153710360123115</v>
       </c>
       <c r="E199" t="n">
-        <v>0.1578406033491057</v>
+        <v>0.1822120315704005</v>
       </c>
     </row>
     <row r="200">
@@ -4619,19 +4619,19 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Study time (Hours)</t>
+          <t>Sleep time (Hours)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Sleep time (Hours)</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>-0.04438451928780836</v>
+        <v>-0.04304899986697363</v>
       </c>
       <c r="E200" t="n">
-        <v>0.1540104407273088</v>
+        <v>0.1667954412947478</v>
       </c>
     </row>
     <row r="201">
@@ -4640,19 +4640,19 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Family size</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Have separate room for studying?</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>-0.04507250363652417</v>
+        <v>-0.04397590313183433</v>
       </c>
       <c r="E201" t="n">
-        <v>0.1477215759993818</v>
+        <v>0.1578406033491057</v>
       </c>
     </row>
     <row r="202">
@@ -4661,19 +4661,19 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
+          <t>Study time (Hours)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
           <t>Sleep time (Hours)</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Engaged in group studies?</t>
-        </is>
-      </c>
       <c r="D202" t="n">
-        <v>-0.0465183913907595</v>
+        <v>-0.04438451928780836</v>
       </c>
       <c r="E202" t="n">
-        <v>0.1351456841831499</v>
+        <v>0.1540104407273088</v>
       </c>
     </row>
     <row r="203">
@@ -4682,19 +4682,19 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Average marks scored before pandemic in traditional classroom</t>
+          <t>Family size</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Clearing doubts with faculties in online mode</t>
+          <t>Have separate room for studying?</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>-0.04670143954027998</v>
+        <v>-0.04507250363652417</v>
       </c>
       <c r="E203" t="n">
-        <v>0.1336143412182778</v>
+        <v>0.1477215759993818</v>
       </c>
     </row>
     <row r="204">
@@ -4703,19 +4703,19 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Sleep time (Hours)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Your level of satisfaction in Online Education</t>
+          <t>Engaged in group studies?</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>-0.04766162825911733</v>
+        <v>-0.0465183913907595</v>
       </c>
       <c r="E204" t="n">
-        <v>0.1258002360930144</v>
+        <v>0.1351456841831499</v>
       </c>
     </row>
     <row r="205">
@@ -4724,19 +4724,19 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Clearing doubts with faculties in online mode</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Clearing doubts with faculties in online mode</t>
+          <t>Average marks scored before pandemic in traditional classroom</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>-0.04777707119746886</v>
+        <v>-0.04670143954027998</v>
       </c>
       <c r="E205" t="n">
-        <v>0.1248852005239814</v>
+        <v>0.1336143412182778</v>
       </c>
     </row>
     <row r="206">
@@ -4745,12 +4745,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
+          <t>Your interaction in online mode</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
           <t>Average marks scored before pandemic in traditional classroom</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Your interaction in online mode</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -4787,12 +4787,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
+          <t>Study time (Hours)</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
           <t>Are you involved in any sports?</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Study time (Hours)</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -4808,19 +4808,19 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Number of Subjects</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Engaged in group studies?</t>
+          <t>Your level of satisfaction in Online Education</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>-0.05235261665342332</v>
+        <v>-0.05084640011832305</v>
       </c>
       <c r="E209" t="n">
-        <v>0.09261813695135633</v>
+        <v>0.1024064707550475</v>
       </c>
     </row>
     <row r="210">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Number of Subjects</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4838,10 +4838,10 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>-0.05568934489819558</v>
+        <v>-0.05235261665342332</v>
       </c>
       <c r="E210" t="n">
-        <v>0.07359957457159083</v>
+        <v>0.09261813695135633</v>
       </c>
     </row>
     <row r="211">
@@ -4850,19 +4850,19 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Clearing doubts with faculties in online mode</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Device type used to attend classes</t>
+          <t>Interested in?</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>-0.0558503302981375</v>
+        <v>-0.05240052080887553</v>
       </c>
       <c r="E211" t="n">
-        <v>0.07276935151824349</v>
+        <v>0.09231958591272349</v>
       </c>
     </row>
     <row r="212">
@@ -4871,19 +4871,19 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Do elderly people monitor you?</t>
+          <t>Internet facility in your locality</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Sleep time (Hours)</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>-0.05642568313671758</v>
+        <v>-0.05313520065096937</v>
       </c>
       <c r="E212" t="n">
-        <v>0.06986452413884311</v>
+        <v>0.08783684339392935</v>
       </c>
     </row>
     <row r="213">
@@ -4892,19 +4892,19 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Are you involved in any sports?</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Your interaction in online mode</t>
+          <t>Your level of satisfaction in Online Education</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>-0.05743750165443918</v>
+        <v>-0.05436764331350476</v>
       </c>
       <c r="E213" t="n">
-        <v>0.06498693201939988</v>
+        <v>0.08071203610639796</v>
       </c>
     </row>
     <row r="214">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Have separate room for studying?</t>
+          <t>Family size</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4922,10 +4922,10 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>-0.05791639751266908</v>
+        <v>-0.05449453507663943</v>
       </c>
       <c r="E214" t="n">
-        <v>0.06277811815064548</v>
+        <v>0.08000587020066109</v>
       </c>
     </row>
     <row r="215">
@@ -4934,19 +4934,19 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Study time (Hours)</t>
+          <t>Engaged in group studies?</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>-0.0591441826355482</v>
+        <v>-0.05568934489819558</v>
       </c>
       <c r="E215" t="n">
-        <v>0.05739705021949218</v>
+        <v>0.07359957457159083</v>
       </c>
     </row>
     <row r="216">
@@ -4955,19 +4955,19 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Are you involved in any sports?</t>
+          <t>Sleep time (Hours)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Interested in?</t>
+          <t>Do elderly people monitor you?</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>-0.05954810527186717</v>
+        <v>-0.05642568313671758</v>
       </c>
       <c r="E216" t="n">
-        <v>0.05571275777537098</v>
+        <v>0.06986452413884311</v>
       </c>
     </row>
     <row r="217">
@@ -4981,14 +4981,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Sleep time (Hours)</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>-0.06088758185387894</v>
+        <v>-0.05645741969996172</v>
       </c>
       <c r="E217" t="n">
-        <v>0.05041897143327911</v>
+        <v>0.06970709972301949</v>
       </c>
     </row>
     <row r="218">
@@ -4997,19 +4997,19 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Study time (Hours)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Have separate room for studying?</t>
+          <t>Home Location</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>-0.06123738185120915</v>
+        <v>-0.0591441826355482</v>
       </c>
       <c r="E218" t="n">
-        <v>0.04910800336121327</v>
+        <v>0.05739705021949218</v>
       </c>
     </row>
     <row r="219">
@@ -5018,19 +5018,19 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Sleep time (Hours)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Interested in?</t>
+          <t>Home Location</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>-0.06191901179258739</v>
+        <v>-0.06088758185387894</v>
       </c>
       <c r="E219" t="n">
-        <v>0.04663540229041321</v>
+        <v>0.05041897143327911</v>
       </c>
     </row>
     <row r="220">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Economic status</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5048,10 +5048,10 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>-0.06350399432468952</v>
+        <v>-0.06126171683677478</v>
       </c>
       <c r="E220" t="n">
-        <v>0.04128788745485891</v>
+        <v>0.04901787422766686</v>
       </c>
     </row>
     <row r="221">
@@ -5060,19 +5060,19 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Economic status</t>
+          <t>Your interaction in online mode</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Interested in Gaming?</t>
+          <t>Interested in?</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>-0.0651370236119532</v>
+        <v>-0.06177918235894224</v>
       </c>
       <c r="E221" t="n">
-        <v>0.03633013460644732</v>
+        <v>0.04713391937139069</v>
       </c>
     </row>
     <row r="222">
@@ -5081,19 +5081,19 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Device type used to attend classes</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Interested in Gaming?</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>-0.06587550337714039</v>
+        <v>-0.06301056512063062</v>
       </c>
       <c r="E222" t="n">
-        <v>0.03426019162589065</v>
+        <v>0.042894088800037</v>
       </c>
     </row>
     <row r="223">
@@ -5102,19 +5102,19 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Internet facility in your locality</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Interested in Gaming?</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>-0.06890589746472675</v>
+        <v>-0.06350399432468952</v>
       </c>
       <c r="E223" t="n">
-        <v>0.02678693783296366</v>
+        <v>0.04128788745485891</v>
       </c>
     </row>
     <row r="224">
@@ -5123,19 +5123,19 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Your interaction in online mode</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>-0.06955018659925</v>
+        <v>-0.06587550337714039</v>
       </c>
       <c r="E224" t="n">
-        <v>0.02539333650803836</v>
+        <v>0.03426019162589065</v>
       </c>
     </row>
     <row r="225">
@@ -5144,19 +5144,19 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Have separate room for studying?</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>-0.06958623550408816</v>
+        <v>-0.06789839840947537</v>
       </c>
       <c r="E225" t="n">
-        <v>0.02531724810535263</v>
+        <v>0.02909827744305915</v>
       </c>
     </row>
     <row r="226">
@@ -5165,19 +5165,19 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Engaged in group studies?</t>
+          <t>Home Location</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>-0.07101016958138727</v>
+        <v>-0.06890589746472675</v>
       </c>
       <c r="E226" t="n">
-        <v>0.02246527366728259</v>
+        <v>0.02678693783296366</v>
       </c>
     </row>
     <row r="227">
@@ -5186,19 +5186,19 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Your interaction in online mode</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Sleep time (Hours)</t>
+          <t>Home Location</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>-0.07203102915753509</v>
+        <v>-0.06955018659925</v>
       </c>
       <c r="E227" t="n">
-        <v>0.02059623697447574</v>
+        <v>0.02539333650803836</v>
       </c>
     </row>
     <row r="228">
@@ -5207,19 +5207,19 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Internet facility in your locality</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Family size</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>-0.07205824969209008</v>
+        <v>-0.06958623550408816</v>
       </c>
       <c r="E228" t="n">
-        <v>0.02054831139526285</v>
+        <v>0.02531724810535263</v>
       </c>
     </row>
     <row r="229">
@@ -5228,19 +5228,19 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Interested in Gaming?</t>
+          <t>Sleep time (Hours)</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>-0.0740709985406785</v>
+        <v>-0.07203102915753509</v>
       </c>
       <c r="E229" t="n">
-        <v>0.01726315973888344</v>
+        <v>0.02059623697447574</v>
       </c>
     </row>
     <row r="230">
@@ -5249,19 +5249,19 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Device type used to attend classes</t>
+          <t>Family size</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Are you involved in any sports?</t>
+          <t>Home Location</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>-0.07491518627205133</v>
+        <v>-0.07205824969209008</v>
       </c>
       <c r="E230" t="n">
-        <v>0.01602843493016404</v>
+        <v>0.02054831139526285</v>
       </c>
     </row>
     <row r="231">
@@ -5270,19 +5270,19 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Home Location</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Study time (Hours)</t>
+          <t>Interested in Gaming?</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>-0.08383954667913718</v>
+        <v>-0.0740709985406785</v>
       </c>
       <c r="E231" t="n">
-        <v>0.007015342852194151</v>
+        <v>0.01726315973888344</v>
       </c>
     </row>
     <row r="232">
@@ -5291,19 +5291,19 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Study time (Hours)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Your interaction in online mode</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>-0.08397222948496355</v>
+        <v>-0.08383954667913718</v>
       </c>
       <c r="E232" t="n">
-        <v>0.006925677714165974</v>
+        <v>0.007015342852194151</v>
       </c>
     </row>
     <row r="233">
@@ -5317,14 +5317,14 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Performance in online</t>
+          <t>Your interaction in online mode</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>-0.08656808334566995</v>
+        <v>-0.08397222948496355</v>
       </c>
       <c r="E233" t="n">
-        <v>0.00536624074579045</v>
+        <v>0.006925677714165974</v>
       </c>
     </row>
     <row r="234">
@@ -5333,19 +5333,19 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Clearing doubts with faculties in online mode</t>
+          <t>Performance in online</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>-0.09109307995588362</v>
+        <v>-0.08656808334566995</v>
       </c>
       <c r="E234" t="n">
-        <v>0.003386241147882588</v>
+        <v>0.00536624074579045</v>
       </c>
     </row>
     <row r="235">
@@ -5354,19 +5354,19 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Clearing doubts with faculties in online mode</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Clearing doubts with faculties in online mode</t>
+          <t>Home Location</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>-0.1018465585844935</v>
+        <v>-0.09109307995588362</v>
       </c>
       <c r="E235" t="n">
-        <v>0.001045660098504273</v>
+        <v>0.003386241147882588</v>
       </c>
     </row>
     <row r="236">
@@ -5375,19 +5375,19 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Interested in Gaming?</t>
+          <t>Sleep time (Hours)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Average marks scored before pandemic in traditional classroom</t>
+          <t>Device type used to attend classes</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>-0.102433088478989</v>
+        <v>-0.09740631538080419</v>
       </c>
       <c r="E236" t="n">
-        <v>0.0009775081313563459</v>
+        <v>0.001722438724268642</v>
       </c>
     </row>
     <row r="237">
@@ -5396,19 +5396,19 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Performance in online</t>
+          <t>Device type used to attend classes</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>-0.1113238466219997</v>
+        <v>-0.09781491837701731</v>
       </c>
       <c r="E237" t="n">
-        <v>0.0003373370425321118</v>
+        <v>0.001646468285461138</v>
       </c>
     </row>
     <row r="238">
@@ -5417,19 +5417,19 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Engaged in group studies?</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Average marks scored before pandemic in traditional classroom</t>
+          <t>Clearing doubts with faculties in online mode</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>-0.1156549603568627</v>
+        <v>-0.1018465585844935</v>
       </c>
       <c r="E238" t="n">
-        <v>0.0001951653408576987</v>
+        <v>0.001045660098504273</v>
       </c>
     </row>
     <row r="239">
@@ -5438,19 +5438,19 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Home Location</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Number of Subjects</t>
+          <t>Your level of satisfaction in Online Education</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>-0.1183476853897566</v>
+        <v>-0.1021908458439943</v>
       </c>
       <c r="E239" t="n">
-        <v>0.0001375500742352561</v>
+        <v>0.00100514182327843</v>
       </c>
     </row>
     <row r="240">
@@ -5459,19 +5459,19 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Interested in Gaming?</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Clearing doubts with faculties in online mode</t>
+          <t>Average marks scored before pandemic in traditional classroom</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>-0.1233478367974376</v>
+        <v>-0.102433088478989</v>
       </c>
       <c r="E240" t="n">
-        <v>7.043057592278773e-05</v>
+        <v>0.0009775081313563459</v>
       </c>
     </row>
     <row r="241">
@@ -5480,19 +5480,19 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Your interaction in online mode</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Interested in?</t>
+          <t>Device type used to attend classes</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>-0.1244366284287378</v>
+        <v>-0.1035564076530617</v>
       </c>
       <c r="E241" t="n">
-        <v>6.06708548525127e-05</v>
+        <v>0.0008583119382123363</v>
       </c>
     </row>
     <row r="242">
@@ -5501,19 +5501,19 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Study time (Hours)</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Your level of satisfaction in Online Education</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>-0.1259864751312521</v>
+        <v>-0.1112648682021555</v>
       </c>
       <c r="E242" t="n">
-        <v>4.896101794178433e-05</v>
+        <v>0.0003398155691858482</v>
       </c>
     </row>
     <row r="243">
@@ -5522,19 +5522,19 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Performance in online</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Interested in?</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>-0.130905484124054</v>
+        <v>-0.1113238466219997</v>
       </c>
       <c r="E243" t="n">
-        <v>2.438443121724444e-05</v>
+        <v>0.0003373370425321118</v>
       </c>
     </row>
     <row r="244">
@@ -5543,19 +5543,19 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Engaged in group studies?</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Your interaction in online mode</t>
+          <t>Average marks scored before pandemic in traditional classroom</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>-0.1395516563595251</v>
+        <v>-0.1156549603568627</v>
       </c>
       <c r="E244" t="n">
-        <v>6.736462756077309e-06</v>
+        <v>0.0001951653408576987</v>
       </c>
     </row>
     <row r="245">
@@ -5564,19 +5564,19 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
+          <t>Clearing doubts with faculties in online mode</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
           <t>Gender</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Interested in?</t>
-        </is>
-      </c>
       <c r="D245" t="n">
-        <v>-0.1404062010496861</v>
+        <v>-0.1233478367974376</v>
       </c>
       <c r="E245" t="n">
-        <v>5.906968537840489e-06</v>
+        <v>7.043057592278773e-05</v>
       </c>
     </row>
     <row r="246">
@@ -5585,19 +5585,19 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Average marks scored before pandemic in traditional classroom</t>
+          <t>Study time (Hours)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Your level of satisfaction in Online Education</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>-0.1455562788168948</v>
+        <v>-0.1259864751312521</v>
       </c>
       <c r="E246" t="n">
-        <v>2.632363175654679e-06</v>
+        <v>4.896101794178433e-05</v>
       </c>
     </row>
     <row r="247">
@@ -5606,19 +5606,19 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Time spent on social media (Hours)</t>
+          <t>Clearing doubts with faculties in online mode</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Average marks scored before pandemic in traditional classroom</t>
+          <t>Device type used to attend classes</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>-0.1527594399109257</v>
+        <v>-0.1272335690089388</v>
       </c>
       <c r="E247" t="n">
-        <v>8.107149827003439e-07</v>
+        <v>4.112726990636383e-05</v>
       </c>
     </row>
     <row r="248">
@@ -5627,19 +5627,19 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Average marks scored before pandemic in traditional classroom</t>
+          <t>Interested in?</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Interested in?</t>
+          <t>Your level of satisfaction in Online Education</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>-0.1566056932651454</v>
+        <v>-0.1286420575251987</v>
       </c>
       <c r="E248" t="n">
-        <v>4.225554481400836e-07</v>
+        <v>3.371074930623562e-05</v>
       </c>
     </row>
     <row r="249">
@@ -5648,19 +5648,19 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Device type used to attend classes</t>
+          <t>Your interaction in online mode</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Average marks scored before pandemic in traditional classroom</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>-0.206085578849454</v>
+        <v>-0.1395516563595251</v>
       </c>
       <c r="E249" t="n">
-        <v>2.26938411361182e-11</v>
+        <v>6.736462756077309e-06</v>
       </c>
     </row>
     <row r="250">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Time spent on social media (Hours)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -5678,10 +5678,10 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>-0.2063178121681551</v>
+        <v>-0.1527594399109257</v>
       </c>
       <c r="E250" t="n">
-        <v>2.153005643438018e-11</v>
+        <v>8.107149827003439e-07</v>
       </c>
     </row>
     <row r="251">
@@ -5695,14 +5695,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Have separate room for studying?</t>
+          <t>Your level of satisfaction in Online Education</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>-0.2066961223514845</v>
+        <v>-0.1565519952588699</v>
       </c>
       <c r="E251" t="n">
-        <v>1.975802892032768e-11</v>
+        <v>4.264636497928228e-07</v>
       </c>
     </row>
     <row r="252">
@@ -5711,19 +5711,19 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Device type used to attend classes</t>
+          <t>Level of Education</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Internet facility in your locality</t>
+          <t>Average marks scored before pandemic in traditional classroom</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>-0.2255313504362955</v>
+        <v>-0.1677460523738962</v>
       </c>
       <c r="E252" t="n">
-        <v>2.224338963535659e-13</v>
+        <v>5.849021207391218e-08</v>
       </c>
     </row>
     <row r="253">
@@ -5732,19 +5732,19 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Home Location</t>
+          <t>Average marks scored before pandemic in traditional classroom</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Device type used to attend classes</t>
+          <t>Your level of satisfaction in Online Education</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>-0.2665996351730474</v>
+        <v>-0.1962912377644388</v>
       </c>
       <c r="E253" t="n">
-        <v>2.870464736297272e-18</v>
+        <v>1.975585488928217e-10</v>
       </c>
     </row>
     <row r="254">
@@ -5753,19 +5753,19 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Level of Education</t>
+          <t>Age(Years)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Age(Years)</t>
+          <t>Average marks scored before pandemic in traditional classroom</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>-0.3420873369795204</v>
+        <v>-0.2063178121681551</v>
       </c>
       <c r="E254" t="n">
-        <v>9.878113075675116e-30</v>
+        <v>2.153005643438018e-11</v>
       </c>
     </row>
   </sheetData>

--- a/results/correlation_matrix.xlsx
+++ b/results/correlation_matrix.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="correlation_matrix" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
